--- a/biology/Médecine/Hôpital_Notre-Dame_à_la_Rose/Hôpital_Notre-Dame_à_la_Rose.xlsx
+++ b/biology/Médecine/Hôpital_Notre-Dame_à_la_Rose/Hôpital_Notre-Dame_à_la_Rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Notre-Dame à la Rose (en néerlandais Gasthuis Onze-Lieve-Vrouw met de Roos) est une ancienne institution hospitalière située à Lessines, en Belgique. Fondé en 1242 par Alix de Rosoit et confié à des religieuses l’hôpital fonctionna jusque dans les années 1980. Il est depuis lors transformé en musée, exemple très complet d’institution hospitalière autarcique du Moyen Âge.
 Classé depuis 1940, il est actuellement repris sur la liste du patrimoine immobilier exceptionnel de la Région wallonne. De grands travaux de restauration furent terminés au début de 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bâti le long de la Dendre, au cœur de la ville de Lessines, l’Hôpital Notre-Dame à la Rose fut fondé au milieu du XIIIe siècle à l’initiative d’Arnould IV d’Audenarde, seigneur de la ville et grand bailli de Flandre et de son épouse Alix de Rosoit, noble princesse originaire de la noblesse française.
 Arnould IV, fidèle bras droit de la comtesse de Flandre, Jeanne de Constantinople, sera impliqué dans les démêlés politiques et militaires de son époque (première moitié du XIIIe siècle). Au soir de sa vie, il fait inscrire dans son testament, d’importantes sommes d’argent en faveur des pauvres, des mendiants et des démunis de la région.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Restauration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital Notre-Dame à la Rose est classé depuis 1940 et est reconnu, depuis 1993, comme patrimoine exceptionnel de Wallonie, la plus haute forme de classement possible en Belgique.
 Malgré ces distinctions, son sauvetage et sa réaffectation ne furent pas une mince affaire. Il fallut toute la passion et l’opiniâtreté d’un groupe de bénévoles dès les années 1980-1990 pour croire à l’avenir de ce lieu. Ils parvinrent à convaincre les responsables politiques locaux et régionaux de se pencher sur le devenir de ce lieu unique en Wallonie et d'entamer, de toute urgence, des travaux de restauration.
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Circuit en quelques lignes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quadrilatère principal s’organise autour d’un jardin intérieur ceinturé de cloîtres. Ceux-ci constituent les axes de circulation principaux et donnent accès à l’ensemble des salles du musée.
 La visite s’articule sur trois étages.
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,7 +659,9 @@
           <t>L'hôpital Notre-Dame-à-la-Rose au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1929 : Ombres et lumière de Théo Dubuisson (film muet)
 2009 : Hadewijch de Bruno Dumont</t>
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_%C3%A0_la_Rose</t>
+          <t>Hôpital_Notre-Dame_à_la_Rose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,7 +692,9 @@
           <t>L'hôpital Notre-Dame-à-la-Rose dans la littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2006 : Marianne Vanhecke, Ces dames de l'Hôpital Notre-Dame à la Rose, Memogrames, Bruxelles  (ISBN 2-930418-13-3)
 2010 (bande dessinée) : Etienne Schréder, La Rose des Geux
